--- a/test/output/平面lifetime(場景.緩存).xlsx
+++ b/test/output/平面lifetime(場景.緩存).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71A761-8E71-4B94-B4E0-EB70DB86FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3E328-BCC3-4DFA-95B5-747FDF393B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -236,25 +236,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>56676</c:v>
+                  <c:v>59811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55156</c:v>
+                  <c:v>56487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53781</c:v>
+                  <c:v>52229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52068</c:v>
+                  <c:v>48961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46105</c:v>
+                  <c:v>45724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41586</c:v>
+                  <c:v>41626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40151</c:v>
+                  <c:v>37001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,6 +909,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>48605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31446</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1526,25 +1547,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68313</c:v>
+                  <c:v>69595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66272</c:v>
+                  <c:v>66656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63961</c:v>
+                  <c:v>65558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63571</c:v>
+                  <c:v>63021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61336</c:v>
+                  <c:v>62053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60301</c:v>
+                  <c:v>60741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56251</c:v>
+                  <c:v>56891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,9 +3918,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3937,9 +3958,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3972,9 +3993,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4007,9 +4045,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4186,7 +4241,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="C12" sqref="C12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4239,25 +4294,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>56676</v>
+        <v>59811</v>
       </c>
       <c r="D2">
-        <v>55156</v>
+        <v>56487</v>
       </c>
       <c r="E2">
-        <v>53781</v>
+        <v>52229</v>
       </c>
       <c r="F2">
-        <v>52068</v>
+        <v>48961</v>
       </c>
       <c r="G2">
-        <v>46105</v>
+        <v>45724</v>
       </c>
       <c r="H2">
-        <v>41586</v>
+        <v>41626</v>
       </c>
       <c r="I2">
-        <v>40151</v>
+        <v>37001</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4372,25 +4427,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>68313</v>
+        <v>69595</v>
       </c>
       <c r="D7">
-        <v>66272</v>
+        <v>66656</v>
       </c>
       <c r="E7">
-        <v>63961</v>
+        <v>65558</v>
       </c>
       <c r="F7">
-        <v>63571</v>
+        <v>63021</v>
       </c>
       <c r="G7">
-        <v>61336</v>
+        <v>62053</v>
       </c>
       <c r="H7">
-        <v>60301</v>
+        <v>60741</v>
       </c>
       <c r="I7">
-        <v>56251</v>
+        <v>56891</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4477,6 +4532,27 @@
       </c>
       <c r="B12" t="s">
         <v>1</v>
+      </c>
+      <c r="C12">
+        <v>48605</v>
+      </c>
+      <c r="D12">
+        <v>45103</v>
+      </c>
+      <c r="E12">
+        <v>39987</v>
+      </c>
+      <c r="F12">
+        <v>38561</v>
+      </c>
+      <c r="G12">
+        <v>36037</v>
+      </c>
+      <c r="H12">
+        <v>32415</v>
+      </c>
+      <c r="I12">
+        <v>31446</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">

--- a/test/output/平面lifetime(場景.緩存).xlsx
+++ b/test/output/平面lifetime(場景.緩存).xlsx
@@ -3,27 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3E328-BCC3-4DFA-95B5-747FDF393B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD20CC-CC1D-4B29-8F6E-BF772033F33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -31,10 +18,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>AVG_LIFETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -55,6 +38,10 @@
   </si>
   <si>
     <t>special2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,8 +171,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
@@ -510,20 +497,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -843,7 +816,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1480,7 +1453,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1495,8 +1468,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
@@ -4240,27 +4213,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="18" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="18" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4286,12 +4259,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>59811</v>
@@ -4323,10 +4296,10 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6673</v>
@@ -4358,10 +4331,10 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>49885</v>
@@ -4393,7 +4366,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4419,12 +4392,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>69595</v>
@@ -4448,9 +4421,9 @@
         <v>56891</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7103.63</v>
@@ -4474,9 +4447,9 @@
         <v>3548.26</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>57655</v>
@@ -4500,7 +4473,7 @@
         <v>48151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4526,12 +4499,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
       </c>
       <c r="C12">
         <v>48605</v>
@@ -4555,19 +4528,19 @@
         <v>31446</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4576,7 +4549,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
